--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-questionnaire-response.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-questionnaire-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>DSF QuestionnaireResponse</t>
+    <t>QuestionnaireResponse</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,9 +81,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An QuestionnaireResponse in the DSF context with restrictions to enforce DSF specific details.</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>QuestionnaireResponse</t>
-  </si>
-  <si>
     <t>Base Definition</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
   </si>
   <si>
     <t>Abstract</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -267,7 +258,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}authored-if-completed:Authored must be set if QuestionnaireResponse.status equals completed {(%resource.status = 'completed') implies authored.exists()}author-if-completed:Author must be set if QuestionnaireResponse.status equals completed {((%resource.status = 'completed') implies author.exists()) and                            ((%resource.status = 'completed') implies author.identifier.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}authored-if-completed-or-amended:Authored must be set if QuestionnaireResponse.status equals completed or amended {(%resource.status = 'completed' or %resource.status = 'amended') implies authored.exists()}author-if-completed-or-amended:Author must be set if QuestionnaireResponse.status equals completed or amended {((%resource.status = 'completed' or %resource.status = 'amended') implies author.exists()) and                        ((%resource.status = 'completed' or %resource.status = 'amended') implies author.identifier.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -362,7 +353,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -423,33 +414,51 @@
     <t>QuestionnaireResponse.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:questionnaire-authorization</t>
+  </si>
+  <si>
+    <t>questionnaire-authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://dsf.dev/fhir/StructureDefinition/extension-questionnaire-authorization|2.0.0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -457,6 +466,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -495,7 +507,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -517,7 +529,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
+    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -543,7 +555,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -605,7 +617,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -633,7 +645,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -698,7 +710,7 @@
 ServicePractitionerDepartmentCompanyPerformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Practitioner|PractitionerRole|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(http://dsf.dev/fhir/StructureDefinition/organization|2.0.0)
 </t>
   </si>
   <si>
@@ -714,6 +726,10 @@
     <t>Need to know who interpreted the subject's answers to the questions in the questionnaire, and selected the appropriate options for answers.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+author-identifier-type-organization:QuestionnaireResponse.author.identifier.type must be 'Organization' if QuestionnaireResponse.author.identifier.system is http://dsf.dev/sid/organization-identifier {identifier.system = 'http://dsf.dev/sid/organization-identifier' implies type.empty() or type = 'Organization'}author-identifier-type-practitioner:QuestionnaireResponse.author.identifier.type must be 'Practitioner' if QuestionnaireResponse.author.identifier.system is http://dsf.dev/sid/practitioner-identifier {identifier.system = 'http://dsf.dev/sid/practitioner-identifier' implies type.empty() or type = 'Practitioner'}</t>
+  </si>
+  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -723,10 +739,275 @@
     <t>FiveWs.author</t>
   </si>
   <si>
+    <t>QuestionnaireResponse.author.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+author-identifier-system:QuestionnaireResponse.author.identifier.system must be 'http://dsf.dev/sid/organization-identifier' or 'http://dsf.dev/sid/practitioner-identifier' {$this = 'http://dsf.dev/sid/organization-identifier' or $this = 'http://dsf.dev/sid/practitioner-identifier'}</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>QuestionnaireResponse.source</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -781,29 +1062,7 @@
     <t>QuestionnaireResponse.item.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>QuestionnaireResponse.item.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.modifierExtension</t>
@@ -900,7 +1159,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -921,7 +1180,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t>.item</t>
@@ -1087,7 +1346,7 @@
   </si>
   <si>
     <t>string
-integerdecimalbooleandatetimedateTimeuriReference</t>
+integerdecimalbooleandatetimedateTimeuriReferenceCodingQuantity</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item:@default.answer.item</t>
@@ -1327,68 +1586,66 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1407,17 +1664,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.12109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.9609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1426,184 +1683,184 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.26171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="95.85546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.22265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>72</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1653,25 +1910,25 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>20</v>
@@ -1679,10 +1936,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1690,31 +1947,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1764,13 +2021,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1790,10 +2047,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1801,10 +2058,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1813,16 +2070,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1873,19 +2130,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1899,10 +2156,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1910,31 +2167,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1984,19 +2241,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2010,10 +2267,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2021,10 +2278,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2036,16 +2293,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2071,43 +2328,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2121,21 +2378,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2147,16 +2404,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2206,25 +2463,25 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2232,21 +2489,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2258,16 +2515,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2317,13 +2574,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -2335,7 +2592,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2343,21 +2600,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2369,17 +2626,15 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -2416,37 +2671,35 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2454,46 +2707,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
       </c>
@@ -2541,25 +2792,25 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2567,43 +2818,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2652,47 +2905,47 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2701,20 +2954,20 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2763,47 +3016,47 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2812,21 +3065,21 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
       </c>
@@ -2874,25 +3127,25 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -2900,21 +3153,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2923,23 +3176,21 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -2987,25 +3238,25 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3013,45 +3264,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3076,13 +3327,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3100,71 +3351,71 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3189,13 +3440,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3213,47 +3464,47 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3262,22 +3513,22 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3326,47 +3577,47 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3375,22 +3626,22 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3439,47 +3690,47 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3488,22 +3739,22 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3552,47 +3803,47 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3601,22 +3852,22 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3665,36 +3916,36 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3702,10 +3953,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3717,17 +3968,15 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3764,35 +4013,37 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -3800,21 +4051,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3826,15 +4077,17 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3871,37 +4124,37 @@
         <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -3909,21 +4162,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3932,19 +4185,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3994,25 +4247,25 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4020,46 +4273,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4083,13 +4334,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4107,25 +4358,25 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4133,10 +4384,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4144,10 +4395,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4156,21 +4407,21 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4218,25 +4469,25 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4244,10 +4495,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4255,10 +4506,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4270,20 +4521,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4331,25 +4578,25 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4357,21 +4604,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4383,18 +4630,18 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4430,37 +4677,37 @@
         <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -4468,10 +4715,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4479,33 +4726,35 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4529,13 +4778,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4553,25 +4802,25 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -4579,10 +4828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4590,10 +4839,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4602,19 +4851,23 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -4638,13 +4891,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4662,25 +4915,25 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -4688,21 +4941,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4711,21 +4964,23 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -4737,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>20</v>
@@ -4773,25 +5028,25 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -4799,46 +5054,44 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -4850,7 +5103,7 @@
         <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>20</v>
@@ -4886,25 +5139,25 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -4912,10 +5165,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4923,10 +5176,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4935,23 +5188,19 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -4975,13 +5224,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -4999,25 +5248,25 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5025,10 +5274,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5036,10 +5285,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5048,21 +5297,21 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5110,25 +5359,25 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5136,10 +5385,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5147,10 +5396,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5159,21 +5408,21 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5221,25 +5470,25 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5247,23 +5496,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5272,21 +5519,23 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5334,36 +5583,36 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5371,10 +5620,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5386,15 +5635,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5431,37 +5682,35 @@
         <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5469,21 +5718,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5495,17 +5744,15 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5554,25 +5801,25 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -5580,46 +5827,44 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -5667,25 +5912,25 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -5693,50 +5938,52 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>20</v>
@@ -5778,25 +6025,25 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -5804,10 +6051,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5815,10 +6062,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5830,19 +6077,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -5891,25 +6136,25 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -5917,10 +6162,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5928,10 +6173,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5943,24 +6188,26 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>20</v>
@@ -6002,25 +6249,25 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6028,10 +6275,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6039,10 +6286,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6054,18 +6301,18 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6113,25 +6360,25 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6139,10 +6386,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6150,10 +6397,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6165,15 +6412,17 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6222,25 +6471,25 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6248,21 +6497,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6274,17 +6523,15 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6333,25 +6580,25 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6359,46 +6606,44 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6446,25 +6691,25 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6472,45 +6717,45 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6535,13 +6780,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6559,25 +6804,25 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -6585,10 +6830,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6596,10 +6841,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6611,17 +6856,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -6646,13 +6893,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -6670,25 +6917,25 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -6696,10 +6943,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6707,10 +6954,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6725,14 +6972,14 @@
         <v>20</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -6781,25 +7028,25 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -6807,23 +7054,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6835,18 +7080,18 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -6894,25 +7139,25 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -6920,21 +7165,23 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -6946,15 +7193,17 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7003,25 +7252,25 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7029,21 +7278,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7055,17 +7304,15 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7114,25 +7361,25 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7140,46 +7387,44 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7227,25 +7472,25 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7253,50 +7498,52 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>20</v>
@@ -7338,25 +7585,25 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7364,10 +7611,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7375,10 +7622,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7390,26 +7637,24 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>20</v>
@@ -7451,25 +7696,25 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7477,10 +7722,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>322</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7488,10 +7733,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -7503,24 +7748,26 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>20</v>
@@ -7562,25 +7809,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -7588,10 +7835,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7599,10 +7846,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -7614,24 +7861,24 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>20</v>
@@ -7673,25 +7920,25 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -7699,10 +7946,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7710,10 +7957,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -7725,15 +7972,17 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -7782,25 +8031,25 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -7808,21 +8057,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -7834,17 +8083,15 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -7893,25 +8140,25 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -7919,46 +8166,44 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8006,25 +8251,25 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -8032,45 +8277,45 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8095,13 +8340,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8119,25 +8364,25 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8145,10 +8390,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8156,10 +8401,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8171,17 +8416,19 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8206,13 +8453,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -8230,25 +8477,25 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -8256,10 +8503,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>330</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8267,10 +8514,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
@@ -8285,14 +8532,14 @@
         <v>20</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -8341,25 +8588,25 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -8367,23 +8614,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -8395,18 +8640,18 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -8454,25 +8699,25 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
@@ -8480,21 +8725,23 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -8506,15 +8753,17 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -8563,25 +8812,25 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -8589,21 +8838,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -8615,17 +8864,15 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -8674,25 +8921,25 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -8700,46 +8947,44 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>20</v>
       </c>
@@ -8787,25 +9032,25 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -8813,43 +9058,45 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -8898,25 +9145,25 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
@@ -8924,10 +9171,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8935,10 +9182,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -8950,26 +9197,24 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>20</v>
@@ -9011,25 +9256,25 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -9037,10 +9282,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9048,10 +9293,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -9063,17 +9308,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -9122,25 +9369,25 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
@@ -9148,10 +9395,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9159,10 +9406,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -9174,24 +9421,24 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>20</v>
@@ -9233,25 +9480,25 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -9259,10 +9506,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9270,10 +9517,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -9285,15 +9532,17 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -9342,25 +9591,25 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>20</v>
@@ -9368,21 +9617,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
@@ -9394,17 +9643,15 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -9453,25 +9700,25 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -9479,46 +9726,44 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>20</v>
       </c>
@@ -9566,25 +9811,25 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
@@ -9592,45 +9837,45 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -9655,13 +9900,13 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -9679,25 +9924,25 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
@@ -9705,10 +9950,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9716,10 +9961,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
@@ -9731,17 +9976,19 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -9766,13 +10013,13 @@
         <v>20</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -9790,25 +10037,25 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
@@ -9816,10 +10063,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9827,10 +10074,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -9845,14 +10092,14 @@
         <v>20</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -9901,27 +10148,1698 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>20</v>
       </c>
     </row>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-questionnaire-response.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
